--- a/01_Requirements/LedgerTypes/Ledger Mapping.xlsx
+++ b/01_Requirements/LedgerTypes/Ledger Mapping.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="151">
   <si>
     <t>Accounts- Ledgers</t>
   </si>
@@ -1556,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="279" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2230,7 +2230,9 @@
       <c r="C26" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E26" s="11" t="b">
         <v>1</v>
       </c>
@@ -2378,7 +2380,9 @@
       <c r="C32" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="E32" s="11" t="b">
         <v>1</v>
       </c>
@@ -2426,7 +2430,9 @@
       <c r="C34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="E34" s="11" t="b">
         <v>1</v>
       </c>
@@ -2450,7 +2456,9 @@
       <c r="C35" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="E35" s="11" t="b">
         <v>1</v>
       </c>
@@ -2756,7 +2764,9 @@
       <c r="C47" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="11"/>
+      <c r="D47" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="E47" s="11" t="b">
         <v>1</v>
       </c>
@@ -2780,7 +2790,9 @@
       <c r="C48" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="11"/>
+      <c r="D48" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="E48" s="11" t="b">
         <v>1</v>
       </c>
@@ -2830,7 +2842,9 @@
       <c r="C50" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="11"/>
+      <c r="D50" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="E50" s="11" t="b">
         <v>1</v>
       </c>

--- a/01_Requirements/LedgerTypes/Ledger Mapping.xlsx
+++ b/01_Requirements/LedgerTypes/Ledger Mapping.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="147">
   <si>
     <t>Accounts- Ledgers</t>
   </si>
@@ -400,21 +400,6 @@
     <t>Taxes &amp; Provisions</t>
   </si>
   <si>
-    <t>Provision for Income tax</t>
-  </si>
-  <si>
-    <t>PF Payable</t>
-  </si>
-  <si>
-    <t>GST Payable</t>
-  </si>
-  <si>
-    <t>TDS / TCS</t>
-  </si>
-  <si>
-    <t>Professional tax payable</t>
-  </si>
-  <si>
     <t>Incomes</t>
   </si>
   <si>
@@ -488,6 +473,9 @@
   </si>
   <si>
     <t>COMPANY</t>
+  </si>
+  <si>
+    <t>Advance Taxes</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>17</v>
@@ -1191,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>25</v>
@@ -1279,7 +1267,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>56</v>
@@ -1508,7 +1496,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>48</v>
@@ -1554,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="279" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1584,16 +1572,16 @@
         <v>59</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2221,28 +2209,28 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="11" t="b">
+      <c r="E26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2280,10 +2268,10 @@
         <v>84</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E28" s="9" t="b">
         <v>0</v>
@@ -2299,26 +2287,28 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11" t="b">
+      <c r="A29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2330,7 +2320,7 @@
         <v>94</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="b">
@@ -2354,7 +2344,7 @@
         <v>94</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="b">
@@ -2378,45 +2368,45 @@
         <v>94</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D33" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="11" t="b">
+      <c r="E33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2428,71 +2418,71 @@
         <v>94</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="E35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D36" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="11" t="b">
+      <c r="E36" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2504,7 +2494,7 @@
         <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="b">
@@ -2521,28 +2511,26 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="9" t="b">
+      <c r="A38" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2554,19 +2542,19 @@
         <v>104</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="E39" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="9" t="b">
         <v>1</v>
@@ -2577,22 +2565,22 @@
         <v>103</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E40" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="9" t="b">
         <v>1</v>
@@ -2606,7 +2594,7 @@
         <v>107</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>107</v>
@@ -2629,13 +2617,13 @@
         <v>103</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E42" s="9" t="b">
         <v>1</v>
@@ -2658,10 +2646,10 @@
         <v>110</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E43" s="9" t="b">
         <v>1</v>
@@ -2684,10 +2672,10 @@
         <v>110</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E44" s="9" t="b">
         <v>1</v>
@@ -2710,13 +2698,13 @@
         <v>110</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E45" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="9" t="b">
         <v>1</v>
@@ -2733,76 +2721,76 @@
         <v>103</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="11" t="s">
+      <c r="E47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B48" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D48" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="11" t="b">
+      <c r="E48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2814,182 +2802,192 @@
         <v>112</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E49" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="11" t="s">
+      <c r="E50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B51" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="11" t="s">
+      <c r="E51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B52" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F51" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="11" t="s">
+      <c r="B53" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F52" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="11" t="b">
+      <c r="D53" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="11" t="s">
+      <c r="A54" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="11" t="b">
+      <c r="D54" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="A55" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="11" t="b">
+      <c r="C55" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="9" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="E56" s="9" t="b">
         <v>1</v>
@@ -3006,16 +3004,16 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="9" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="D57" s="9" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E57" s="9" t="b">
         <v>1</v>
@@ -3032,16 +3030,16 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="9" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="E58" s="9" t="b">
         <v>1</v>
@@ -3061,13 +3059,13 @@
         <v>41</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E59" s="9" t="b">
         <v>1</v>
@@ -3087,10 +3085,10 @@
         <v>41</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>79</v>
@@ -3113,10 +3111,10 @@
         <v>41</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>79</v>
@@ -3131,110 +3129,6 @@
         <v>1</v>
       </c>
       <c r="H61" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F63" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E64" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E65" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="9" t="b">
         <v>1</v>
       </c>
     </row>
